--- a/data/outputs/management_elsevier/33.xlsx
+++ b/data/outputs/management_elsevier/33.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS18"/>
+  <dimension ref="A1:BU18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -943,6 +953,12 @@
           <t>2-s2.0-84948425405</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>3723</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84948994817</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1385,6 +1407,12 @@
           <t>2-s2.0-84949196016</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2328</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1594,6 +1622,12 @@
           <t>2-s2.0-84949223365</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1330</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1815,6 +1849,12 @@
           <t>2-s2.0-84949231956</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>2709</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2028,6 +2068,12 @@
           <t>2-s2.0-84933524410</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>2346</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2241,6 +2287,12 @@
           <t>2-s2.0-84943565060</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>4034</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2459,6 +2511,12 @@
         <is>
           <t>2-s2.0-84934876021</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>3664</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2669,6 +2727,12 @@
           <t>2-s2.0-84928806984</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1423</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2886,6 +2950,12 @@
           <t>2-s2.0-84928824800</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1682</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3106,6 +3176,12 @@
         <is>
           <t>2-s2.0-84928825414</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>3239</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3316,6 +3392,12 @@
           <t>2-s2.0-84928826145</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>4278</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3526,6 +3608,12 @@
         <is>
           <t>2-s2.0-84927796354</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>5014</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -3712,6 +3800,12 @@
           <t>2-s2.0-84927800313</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>391</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3936,6 +4030,12 @@
         <is>
           <t>2-s2.0-84927787389</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>1790</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -4146,6 +4246,12 @@
           <t>2-s2.0-84927788434</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>844</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4357,6 +4463,12 @@
           <t>2-s2.0-84927910377</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>971</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
